--- a/exported_agentes.xlsx
+++ b/exported_agentes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Nome</t>
   </si>
@@ -37,12 +37,6 @@
     <t>TESTE</t>
   </si>
   <si>
-    <t>TESTE1</t>
-  </si>
-  <si>
-    <t>TESTES</t>
-  </si>
-  <si>
     <t>GUILHERME KIRSCHNER DE SIQUEIRA CAMPOS</t>
   </si>
   <si>
@@ -58,15 +52,9 @@
     <t>Capitão de Mar e Guerra (IM)</t>
   </si>
   <si>
-    <t>Capitão de Fragata (IM)</t>
-  </si>
-  <si>
     <t>Primeiro-Tenente</t>
   </si>
   <si>
-    <t>Segundo-Sargento</t>
-  </si>
-  <si>
     <t>CAPITÃO DE CORVETA (IM)</t>
   </si>
   <si>
@@ -76,25 +64,16 @@
     <t>CMG (IM)</t>
   </si>
   <si>
-    <t>CF (IM)</t>
-  </si>
-  <si>
     <t>1ºTEN</t>
   </si>
   <si>
-    <t>2º SG</t>
-  </si>
-  <si>
     <t>CC (IM)</t>
   </si>
   <si>
-    <t>12077879.0</t>
-  </si>
-  <si>
-    <t>5050505.0</t>
-  </si>
-  <si>
-    <t>Ordenador de Despesa</t>
+    <t>12077879</t>
+  </si>
+  <si>
+    <t>5050505</t>
   </si>
   <si>
     <t>Agente Fiscal</t>
@@ -103,13 +82,7 @@
     <t>Encarregado da Divisão de Planejamento</t>
   </si>
   <si>
-    <t>Encarregado da Divisão de Licitações</t>
-  </si>
-  <si>
     <t>Diretor</t>
-  </si>
-  <si>
-    <t>Vice-Diretor</t>
   </si>
   <si>
     <t>Auditor de Controle Interno</t>
@@ -476,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,13 +487,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -528,27 +501,27 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -556,109 +529,53 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
         <v>25</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
